--- a/backend/assets/CategorizedSinhalaSongs.xlsx
+++ b/backend/assets/CategorizedSinhalaSongs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\FYP\MusicApp\backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B3F40-1C75-4EE1-81C4-4866729C4B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE4A0A3-517E-48C8-8583-6A0B8FDF1EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testmusic" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="253">
   <si>
     <t>artists</t>
   </si>
@@ -614,6 +614,171 @@
   </si>
   <si>
     <t>Chinthy</t>
+  </si>
+  <si>
+    <t>බයිලා ගමුද රී මික්ස් කරලා</t>
+  </si>
+  <si>
+    <t>සුමිහිරි පානේ</t>
+  </si>
+  <si>
+    <t>Desmond De Silva &amp; Sunil Perera</t>
+  </si>
+  <si>
+    <t>දොර ඇරපන් ආයා සුදා</t>
+  </si>
+  <si>
+    <t>Desmond De Silva with Mariazelle Gunathilake</t>
+  </si>
+  <si>
+    <t>Sunil Perera</t>
+  </si>
+  <si>
+    <t>සයිමා කට් වෙලා</t>
+  </si>
+  <si>
+    <t>ගිනි අඟුරු ගොඩේ</t>
+  </si>
+  <si>
+    <t>Gypsies</t>
+  </si>
+  <si>
+    <t>යමි පයින් යමි</t>
+  </si>
+  <si>
+    <t>Wasthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">මදහස පානා </t>
+  </si>
+  <si>
+    <t>යාල්පානමේ</t>
+  </si>
+  <si>
+    <t>Bathiya and Santhush &amp; Hariharan</t>
+  </si>
+  <si>
+    <t>පෙරියමුල්ල</t>
+  </si>
+  <si>
+    <t>Big Doggy, Costa &amp; Shan Putha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">සඳමාලි </t>
+  </si>
+  <si>
+    <t>Shan Putha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ටකාල් </t>
+  </si>
+  <si>
+    <t>SPMP</t>
+  </si>
+  <si>
+    <t>සලන් හන්තේ</t>
+  </si>
+  <si>
+    <t>DJ JNK, Shan Putha &amp; Moniyo</t>
+  </si>
+  <si>
+    <t>බටනලා</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>කාමිණී</t>
+  </si>
+  <si>
+    <t>Smokio, Ramessesreezy &amp; Thuggahchainmusic</t>
+  </si>
+  <si>
+    <t>නුවර මචන්</t>
+  </si>
+  <si>
+    <t>මුඩුක්කුවෙන් එලියට</t>
+  </si>
+  <si>
+    <t>Iraj Ft. Smokio</t>
+  </si>
+  <si>
+    <t>වීදීමායම්</t>
+  </si>
+  <si>
+    <t>44Kalliya</t>
+  </si>
+  <si>
+    <t>අන්ධකාරේ මං</t>
+  </si>
+  <si>
+    <t>Dilo</t>
+  </si>
+  <si>
+    <t>නෑ ශෝකෙන්</t>
+  </si>
+  <si>
+    <t>K80, Shan Putha &amp; Prasa Kg</t>
+  </si>
+  <si>
+    <t>ගාවින් මා</t>
+  </si>
+  <si>
+    <t>මං තනියෙන්</t>
+  </si>
+  <si>
+    <t>OOSeven</t>
+  </si>
+  <si>
+    <t>ගම්මානේ</t>
+  </si>
+  <si>
+    <t>Costa &amp; Duava</t>
+  </si>
+  <si>
+    <t>හීන ලෝකේ</t>
+  </si>
+  <si>
+    <t>Max Demon &amp; Alokaya</t>
+  </si>
+  <si>
+    <t>සිතුවිලි</t>
+  </si>
+  <si>
+    <t>Indrachapa Liyanage</t>
+  </si>
+  <si>
+    <t>සලා දෙනෙත් යුග</t>
+  </si>
+  <si>
+    <t>Nishantha Pradeep</t>
+  </si>
+  <si>
+    <t>චකිතය</t>
+  </si>
+  <si>
+    <t>Mihindu Ariyaratne</t>
+  </si>
+  <si>
+    <t>යාත්‍රිකයා</t>
+  </si>
+  <si>
+    <t>රෝස පෙත්තෙ</t>
+  </si>
+  <si>
+    <t>මිරිඟුව පරදා</t>
+  </si>
+  <si>
+    <t>Chitral Somapala</t>
+  </si>
+  <si>
+    <t>නදී ගංගා තරණයේ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">නොසැලී </t>
+  </si>
+  <si>
+    <t>සිංහයෝ</t>
   </si>
 </sst>
 </file>
@@ -756,7 +921,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +1116,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,12 +1298,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1478,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1745,7 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N2" t="s">
@@ -1568,7 +1754,7 @@
       <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1600,7 +1786,7 @@
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N3" t="s">
@@ -1609,7 +1795,7 @@
       <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1641,7 +1827,7 @@
       <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N4" t="s">
@@ -1682,7 +1868,7 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N5" t="s">
@@ -1717,15 +1903,6 @@
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
       <c r="N6" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +1941,7 @@
       <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N7" t="s">
@@ -1805,7 +1982,7 @@
       <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1846,7 +2023,7 @@
       <c r="K9" t="s">
         <v>63</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -2323,7 +2500,7 @@
       <c r="G23" t="s">
         <v>106</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J23" t="s">
@@ -2355,7 +2532,7 @@
       <c r="G24" t="s">
         <v>109</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J24" t="s">
@@ -2387,7 +2564,7 @@
       <c r="G25" t="s">
         <v>115</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J25" t="s">
@@ -2419,7 +2596,7 @@
       <c r="G26" t="s">
         <v>119</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J26" t="s">
@@ -2442,7 +2619,7 @@
       <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F27" t="s">
@@ -2451,7 +2628,7 @@
       <c r="G27" t="s">
         <v>123</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J27" t="s">
@@ -2483,7 +2660,7 @@
       <c r="G28" t="s">
         <v>125</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J28" t="s">
@@ -2515,7 +2692,7 @@
       <c r="G29" t="s">
         <v>128</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J29" t="s">
@@ -2547,7 +2724,7 @@
       <c r="G30" t="s">
         <v>130</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J30" t="s">
@@ -2579,7 +2756,7 @@
       <c r="G31" t="s">
         <v>133</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2602,7 +2779,7 @@
       <c r="G32" t="s">
         <v>134</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2625,7 +2802,7 @@
       <c r="G33" t="s">
         <v>136</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2648,7 +2825,7 @@
       <c r="G34" t="s">
         <v>137</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2703,10 +2880,22 @@
       <c r="D37" t="s">
         <v>140</v>
       </c>
-      <c r="H37" t="s">
+      <c r="F37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L37" t="s">
+      <c r="J37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2723,6 +2912,24 @@
       <c r="D38" t="s">
         <v>140</v>
       </c>
+      <c r="F38" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -2737,6 +2944,24 @@
       <c r="D39" t="s">
         <v>140</v>
       </c>
+      <c r="F39" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -2751,6 +2976,24 @@
       <c r="D40" t="s">
         <v>140</v>
       </c>
+      <c r="F40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -2765,6 +3008,24 @@
       <c r="D41" t="s">
         <v>140</v>
       </c>
+      <c r="F41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -2779,6 +3040,24 @@
       <c r="D42" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="F42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -2793,88 +3072,229 @@
       <c r="D43" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="F43" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="D48" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F49" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F50" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="F51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/assets/CategorizedSinhalaSongs.xlsx
+++ b/backend/assets/CategorizedSinhalaSongs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\FYP\MusicApp\backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE4A0A3-517E-48C8-8583-6A0B8FDF1EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB4F404-351B-4978-A845-C39808214B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testmusic" sheetId="1" r:id="rId1"/>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
